--- a/docs/practice/correlation.xlsx
+++ b/docs/practice/correlation.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7232b599e1879579/Research/_CUREs/CURE_resources/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\CURES\Statistics-with-Excel\docs\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F92BD238-FBD8-45C4-8FB0-27287D7928BD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A9787E-119C-48F6-AC65-E1EB0AFC8540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1060" windowWidth="16960" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3750" yWindow="1340" windowWidth="25970" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="solutions" sheetId="1" r:id="rId1"/>
+    <sheet name="practice" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>X</t>
   </si>
@@ -57,6 +58,15 @@
   </si>
   <si>
     <t>A and B, and B and C, are not correlated since the correlation is close to 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X and Z have high positive </t>
+  </si>
+  <si>
+    <t>correlation</t>
+  </si>
+  <si>
+    <t>X and Z have high negative</t>
   </si>
 </sst>
 </file>
@@ -107,7 +117,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -135,21 +145,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -202,7 +235,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>perfect correlation</a:t>
+              <a:t>positive correlation</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -247,7 +280,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
+              <c:f>solutions!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -270,7 +303,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>solutions!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -284,7 +317,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
@@ -304,7 +337,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>solutions!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -327,7 +360,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>solutions!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -335,7 +368,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
@@ -515,6 +548,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -522,7 +556,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -592,7 +625,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>no correlation</a:t>
+              <a:t>negative correlation</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -645,7 +678,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>solutions!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -668,7 +701,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$6</c:f>
+              <c:f>solutions!$J$2:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -676,13 +709,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
@@ -702,7 +735,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>solutions!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -725,7 +758,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$6</c:f>
+              <c:f>solutions!$K$2:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -913,6 +946,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -920,7 +954,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -990,7 +1023,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>example</a:t>
+              <a:t>mixed</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1035,7 +1068,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$25</c:f>
+              <c:f>solutions!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1058,7 +1091,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$26:$A$30</c:f>
+              <c:f>solutions!$A$26:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1092,7 +1125,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$25</c:f>
+              <c:f>solutions!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1115,7 +1148,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$B$30</c:f>
+              <c:f>solutions!$B$26:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1149,7 +1182,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$25</c:f>
+              <c:f>solutions!$C$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1172,7 +1205,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$26:$C$30</c:f>
+              <c:f>solutions!$C$26:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1360,6 +1393,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1367,7 +1401,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3108,50 +3141,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>322717</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63501</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>39766</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8BB149A-2E3F-98A5-234D-C385D8115458}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1541917" y="2025650"/>
-          <a:ext cx="3398384" cy="2065416"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -3182,7 +3171,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3218,7 +3207,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3251,7 +3240,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3268,11 +3257,95 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E7B017-189C-812F-7C73-E19B08A4FB10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981201" y="2019300"/>
+          <a:ext cx="3314700" cy="1936509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>558801</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>86177</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91C0D924-0A69-A48C-EFD1-B831C624A656}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467601" y="2000250"/>
+          <a:ext cx="3454400" cy="1978477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3592,218 +3665,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>2</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="7">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="J3">
+      <c r="B3" s="7">
+        <v>11</v>
+      </c>
+      <c r="J3" s="7">
+        <v>9</v>
+      </c>
+      <c r="K3" s="7">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4</v>
+      </c>
+      <c r="J4" s="7">
+        <v>2</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7">
+        <v>14</v>
+      </c>
+      <c r="J5" s="7">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
+        <v>8</v>
+      </c>
+      <c r="J6" s="7">
+        <v>6</v>
+      </c>
+      <c r="K6" s="7">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J12" s="10"/>
+      <c r="K12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="J14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="11">
+        <v>-0.99859959726201564</v>
+      </c>
+      <c r="L14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0.98967174551178738</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J16" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>0</v>
+      </c>
+      <c r="B26" s="7">
+        <v>2</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>14</v>
+      </c>
+      <c r="B27" s="7">
+        <v>6</v>
+      </c>
+      <c r="C27" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>1</v>
+      </c>
+      <c r="B28" s="7">
+        <v>8</v>
+      </c>
+      <c r="C28" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
         <v>10</v>
       </c>
-      <c r="K3">
-        <v>-8</v>
+      <c r="B29" s="7">
+        <v>5</v>
+      </c>
+      <c r="C29" s="7">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>14</v>
-      </c>
-      <c r="J5">
-        <v>12</v>
-      </c>
-      <c r="K5">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>5</v>
+      </c>
+      <c r="B30" s="7">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="J6">
-        <v>6</v>
-      </c>
-      <c r="K6">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>14</v>
-      </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>8</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>10</v>
-      </c>
-      <c r="B29">
-        <v>5</v>
-      </c>
-      <c r="C29">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>5</v>
-      </c>
-      <c r="B30">
-        <v>6</v>
-      </c>
-      <c r="C30">
+      <c r="C30" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>0.19151606657371736</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>0.90926833986372158</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <v>0.10889310129609421</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>1</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3812,4 +3957,170 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D2391F-7820-4CF6-9543-171D8C0BBEB0}">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7">
+        <v>11</v>
+      </c>
+      <c r="J3" s="7">
+        <v>9</v>
+      </c>
+      <c r="K3" s="7">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4</v>
+      </c>
+      <c r="J4" s="7">
+        <v>2</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7">
+        <v>14</v>
+      </c>
+      <c r="J5" s="7">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
+        <v>8</v>
+      </c>
+      <c r="J6" s="7">
+        <v>6</v>
+      </c>
+      <c r="K6" s="7">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>0</v>
+      </c>
+      <c r="B26" s="7">
+        <v>2</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>14</v>
+      </c>
+      <c r="B27" s="7">
+        <v>6</v>
+      </c>
+      <c r="C27" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>1</v>
+      </c>
+      <c r="B28" s="7">
+        <v>8</v>
+      </c>
+      <c r="C28" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>10</v>
+      </c>
+      <c r="B29" s="7">
+        <v>5</v>
+      </c>
+      <c r="C29" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>5</v>
+      </c>
+      <c r="B30" s="7">
+        <v>6</v>
+      </c>
+      <c r="C30" s="7">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>